--- a/P0053/09_FICHAS/N2-FP-MODELO.xlsx
+++ b/P0053/09_FICHAS/N2-FP-MODELO.xlsx
@@ -1,204 +1,255 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0053\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EE8B60-2C86-4B55-97EF-D9D2FCD52EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{00EE8B60-2C86-4B55-97EF-D9D2FCD52EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C0AB2C3-8785-4875-82C7-6890CE615F8B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
-  <si>
-    <t>Código de proyecto</t>
-  </si>
-  <si>
-    <t>Código de producto</t>
-  </si>
-  <si>
-    <t>Nombre del producto</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Autor 1</t>
-  </si>
-  <si>
-    <t>Autor 2</t>
-  </si>
-  <si>
-    <t>Autor 3</t>
-  </si>
-  <si>
-    <t>Descripción (objeto, supuestos, resultados)</t>
-  </si>
-  <si>
-    <t>Tipo de producto</t>
-  </si>
-  <si>
-    <t>Tipo del Modelo</t>
-  </si>
-  <si>
-    <t>área de conocimiento del modelo</t>
-  </si>
-  <si>
-    <t>Se cuenta con archivos  Nativos</t>
-  </si>
-  <si>
-    <t>Archivos del Modelo</t>
-  </si>
-  <si>
-    <t>Software (Nombre y versión)</t>
-  </si>
-  <si>
-    <t>Tipo de Licencia</t>
-  </si>
-  <si>
-    <t>Nivel de consumo de recursos computacionales</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado 1</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado2</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado3</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado4</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado5</t>
-  </si>
-  <si>
-    <t>Cantidad de Escenarios simulados</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 1</t>
-  </si>
-  <si>
-    <t>Descripción escenario 1</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 2</t>
-  </si>
-  <si>
-    <t>Descripción escenario 2</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 3</t>
-  </si>
-  <si>
-    <t>Descripción escenario 3</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 4</t>
-  </si>
-  <si>
-    <t>Descripción escenario 4</t>
-  </si>
-  <si>
-    <t>Nombre escenario 5</t>
-  </si>
-  <si>
-    <t>Descripción escenario 5</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Palabras Clave</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+  <si>
+    <t>CODIGO DE PROYECTO</t>
+  </si>
+  <si>
+    <t>CODIGO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t>DIRECTORIO</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>AUTOR 1</t>
+  </si>
+  <si>
+    <t>AUTOR 2</t>
+  </si>
+  <si>
+    <t>AUTOR 3</t>
+  </si>
+  <si>
+    <t>AUTOR 4</t>
+  </si>
+  <si>
+    <t>AUTOR 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>TIPO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>TIPO DE MODELO</t>
+  </si>
+  <si>
+    <t>AREA DE CONOCIMIENTO DEL MODELO</t>
+  </si>
+  <si>
+    <t>SE CUENTA CON ARCHIVOS NATIVOS</t>
+  </si>
+  <si>
+    <t>SOFTWARE</t>
+  </si>
+  <si>
+    <t>TIPO DE LICENCIA</t>
+  </si>
+  <si>
+    <t>NIVEL DE CONSUMO DE RECURSOS COMPUTACIONALES</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 1</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 2</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 3</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 4</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 5</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE ESCENARIOS SIMULADOS</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 1</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 1</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 2</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 2</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 3</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 3</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 4</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 4</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 5</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 6</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 6</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 7</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 7</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 8</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 8</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 9</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 9</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 10</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 10</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0053</t>
   </si>
   <si>
     <t>PR1001</t>
   </si>
   <si>
+    <t xml:space="preserve">Modelo hidrodinámico </t>
+  </si>
+  <si>
+    <t>S3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0053/02_PRODUCTOS/Producto 5. Un archivo digital que incluya. El codigo fuente del modelo. La configuracion del  modelo con parametros calibrados/MMOJCAL.lit</t>
+  </si>
+  <si>
+    <t>Fondo Adaptación</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>El modelo hidrodinámico utilizado en el contexto de la modelación de la Mojana se basa en el software Sobek, el cual realiza un acople entre una dimensión (Para ríos) y dos dimensiones (para ciénagas y llanuras de inundación). Este se utiliza para evaluar la probabilidad de fallas en los diques de defensa contra inundaciones. Esto se logra mediante la realización de múltiples corridas de simulación, donde se evalúan diferentes escenarios de carga y resistencia del dique. Las corridas se basan en técnicas de Monte Carlo, que permiten explorar la variabilidad de los resultados al incluir diferentes combinaciones de parámetros aleatorios. Este enfoque probabilístico es fundamental para entender los riesgos asociados con las inundaciones y la efectividad de las estructuras de defensa. Además, el modelo permite la generación de escenarios de falla, donde se analizan las condiciones bajo las cuales un dique podría fallar. Esto incluye la identificación de los mecanismos de falla más comunes, como la erosión, la sobrepresión y la inestabilidad del suelo. La información obtenida de estas simulaciones se almacena en bases de datos, lo que facilita el análisis posterior y la toma de decisiones informadas sobre la gestión de riesgos.</t>
+  </si>
+  <si>
     <t>Modelo</t>
   </si>
   <si>
     <t>Numérico</t>
   </si>
   <si>
+    <t>Hidrodinámica</t>
+  </si>
+  <si>
     <t>SI</t>
   </si>
   <si>
-    <t>Modelo Hidrodinámico numérico</t>
-  </si>
-  <si>
-    <t>Hidrodinámica</t>
+    <t>SOBEK (v 3.1)</t>
+  </si>
+  <si>
+    <t>Licenciado</t>
+  </si>
+  <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
+    <t>PR0002</t>
+  </si>
+  <si>
+    <t>PR0003</t>
   </si>
   <si>
     <t>PR0004</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>P0053</t>
-  </si>
-  <si>
-    <t>EMA</t>
-  </si>
-  <si>
-    <t>PUJ (PONTIFICIA UNIVERSIDAD JAVERIANA)</t>
-  </si>
-  <si>
-    <t>SOBEK (v 3.1)</t>
-  </si>
-  <si>
-    <t>Medio                                                                                   RAM: 15 GB                                                                                                                                                                                                                                                      DD: aprox. 50 GB</t>
-  </si>
-  <si>
-    <t>No es posible realizar ninguna simulación de los escenarios planteados debido a que no se posee licencia del modelo (SOBEK).</t>
+    <t>La información del modelo se entrega como anexo, sin embargo, no existe un documento o informe en detalle que permita identificar las características y resultados de la construcción del modelo. Por otro lado, al ser un software licenciado, ni el equipo de trabajo, ni el Fondo Adaptación cuentan con una licencia vigente, por lo cual, revisar la información y ejecutar el modelo se hizo imposible.</t>
   </si>
   <si>
     <t>Hidrodinámica, SOBEK, Velocidades de flujo de agua, Profundidades de flujo de agua, Mancha de inundación, Acople 1D-2D.</t>
-  </si>
-  <si>
-    <t>Propietaria, privativa</t>
-  </si>
-  <si>
-    <t>Modelo hidrodinámico numérico en estado no estacionario de la región de la Mojana. El modelo es un acople 1D-2D, se utilizó un modelo unidimensional para los ríos y caños principales y una representación bidimensional para las ciénagas y llanuras de inundación. El objetivo del modelo es describir el comportamiento del flujo de agua sobre las cíenagas, caños y rios de la Mojana. Las condiciones de contorno del modelo se divideron en dos componentes: 1) Constituye una representación de varios de los principales afluentes que llegan a la Mojana como el río San Jorge, el río Cauca, el río Nechí, el río Caribona, entre otros  y 2) Una estimación de la escorrentía directa debida a las precipitaciones que tienen lugar en la Mojana. El modelo es utilizado para evaluación de la amenaza en inundaciones y simulación de alternativas de intervención, las cuales fueron: 1) Medidas de adaptación y protección de centros urbanos sin intervenciones en el dique sobre el río Cauca, 2) Realce y refuerzo del dique actual en el tramo Colorado-Las Brisas, 3) Refuerzo y realce del dique actual del río Cauca en el tramo Colorado – Las Brisas y continuación del dique desde Las Brisas a Pinillos, 4) Dique marginal actual reforzado con la construcción de estructuras de derivación y 5) Dique paralelo nuevo fuera del cauce mayor del río Cauca con estructuras de derivación.</t>
-  </si>
-  <si>
-    <t>Casedraw.cmt _x000D_
-caselist.cmt _x000D_
-closed.cmt_x000D_
-DESCPROT.CMT_x000D_
-Register.cmt_x000D_
-Sobek.map</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -236,12 +287,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,15 +574,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AT5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AY2" sqref="AY2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,113 +688,185 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1">
         <v>2015</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="X2" s="1">
+        <v>100</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="M8" s="2"/>
+    <row r="5" spans="1:46">
+      <c r="M5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
